--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sema4d-Plxnb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sema4d-Plxnb2.xlsx
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.6040246666666667</v>
+        <v>0.4841736666666667</v>
       </c>
       <c r="H2">
-        <v>1.812074</v>
+        <v>1.452521</v>
       </c>
       <c r="I2">
-        <v>0.007395659364387973</v>
+        <v>0.003342651198412304</v>
       </c>
       <c r="J2">
-        <v>0.007395659364387973</v>
+        <v>0.003342651198412304</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.10053366666667</v>
+        <v>19.60046366666667</v>
       </c>
       <c r="N2">
-        <v>39.301601</v>
+        <v>58.801391</v>
       </c>
       <c r="O2">
-        <v>0.06587968613835861</v>
+        <v>0.09579635405941929</v>
       </c>
       <c r="P2">
-        <v>0.0658796861383586</v>
+        <v>0.09579635405941929</v>
       </c>
       <c r="Q2">
-        <v>7.913045481163777</v>
+        <v>9.490028361856778</v>
       </c>
       <c r="R2">
-        <v>71.217409330474</v>
+        <v>85.410255256711</v>
       </c>
       <c r="S2">
-        <v>0.0004872237177120923</v>
+        <v>0.0003202137977002473</v>
       </c>
       <c r="T2">
-        <v>0.0004872237177120922</v>
+        <v>0.0003202137977002473</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.6040246666666667</v>
+        <v>0.4841736666666667</v>
       </c>
       <c r="H3">
-        <v>1.812074</v>
+        <v>1.452521</v>
       </c>
       <c r="I3">
-        <v>0.007395659364387973</v>
+        <v>0.003342651198412304</v>
       </c>
       <c r="J3">
-        <v>0.007395659364387973</v>
+        <v>0.003342651198412304</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>41.17343766666666</v>
+        <v>41.17343766666667</v>
       </c>
       <c r="N3">
         <v>123.520313</v>
       </c>
       <c r="O3">
-        <v>0.2070521109852959</v>
+        <v>0.2012332605818508</v>
       </c>
       <c r="P3">
-        <v>0.2070521109852959</v>
+        <v>0.2012332605818508</v>
       </c>
       <c r="Q3">
-        <v>24.86977196212911</v>
+        <v>19.93509428434145</v>
       </c>
       <c r="R3">
-        <v>223.827947659162</v>
+        <v>179.415848559073</v>
       </c>
       <c r="S3">
-        <v>0.001531286883524702</v>
+        <v>0.000672652599644339</v>
       </c>
       <c r="T3">
-        <v>0.001531286883524701</v>
+        <v>0.000672652599644339</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.6040246666666667</v>
+        <v>0.4841736666666667</v>
       </c>
       <c r="H4">
-        <v>1.812074</v>
+        <v>1.452521</v>
       </c>
       <c r="I4">
-        <v>0.007395659364387973</v>
+        <v>0.003342651198412304</v>
       </c>
       <c r="J4">
-        <v>0.007395659364387973</v>
+        <v>0.003342651198412304</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>63.73145666666667</v>
+        <v>62.721578</v>
       </c>
       <c r="N4">
-        <v>191.19437</v>
+        <v>188.164734</v>
       </c>
       <c r="O4">
-        <v>0.3204913989896037</v>
+        <v>0.3065487937140884</v>
       </c>
       <c r="P4">
-        <v>0.3204913989896037</v>
+        <v>0.3065487937140884</v>
       </c>
       <c r="Q4">
-        <v>38.49537186926445</v>
+        <v>30.36813639937933</v>
       </c>
       <c r="R4">
-        <v>346.4583468233801</v>
+        <v>273.313227594414</v>
       </c>
       <c r="S4">
-        <v>0.002370245216143265</v>
+        <v>0.001024685692680244</v>
       </c>
       <c r="T4">
-        <v>0.002370245216143264</v>
+        <v>0.001024685692680244</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.6040246666666667</v>
+        <v>0.4841736666666667</v>
       </c>
       <c r="H5">
-        <v>1.812074</v>
+        <v>1.452521</v>
       </c>
       <c r="I5">
-        <v>0.007395659364387973</v>
+        <v>0.003342651198412304</v>
       </c>
       <c r="J5">
-        <v>0.007395659364387973</v>
+        <v>0.003342651198412304</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.48213333333333</v>
+        <v>14.150157</v>
       </c>
       <c r="N5">
-        <v>43.4464</v>
+        <v>42.450471</v>
       </c>
       <c r="O5">
-        <v>0.07282744526976352</v>
+        <v>0.06915823385717373</v>
       </c>
       <c r="P5">
-        <v>0.07282744526976351</v>
+        <v>0.06915823385717375</v>
       </c>
       <c r="Q5">
-        <v>8.747565759288888</v>
+        <v>6.851133398599</v>
       </c>
       <c r="R5">
-        <v>78.72809183359999</v>
+        <v>61.660200587391</v>
       </c>
       <c r="S5">
-        <v>0.0005386069775937791</v>
+        <v>0.0002311718532827602</v>
       </c>
       <c r="T5">
-        <v>0.000538606977593779</v>
+        <v>0.0002311718532827602</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.6040246666666667</v>
+        <v>0.4841736666666667</v>
       </c>
       <c r="H6">
-        <v>1.812074</v>
+        <v>1.452521</v>
       </c>
       <c r="I6">
-        <v>0.007395659364387973</v>
+        <v>0.003342651198412304</v>
       </c>
       <c r="J6">
-        <v>0.007395659364387973</v>
+        <v>0.003342651198412304</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>66.36787400000001</v>
+        <v>66.95989233333333</v>
       </c>
       <c r="N6">
-        <v>199.103622</v>
+        <v>200.879677</v>
       </c>
       <c r="O6">
-        <v>0.3337493586169784</v>
+        <v>0.3272633577874677</v>
       </c>
       <c r="P6">
-        <v>0.3337493586169783</v>
+        <v>0.3272633577874678</v>
       </c>
       <c r="Q6">
-        <v>40.08783297022534</v>
+        <v>32.42021659063522</v>
       </c>
       <c r="R6">
-        <v>360.790496732028</v>
+        <v>291.781949315717</v>
       </c>
       <c r="S6">
-        <v>0.002468296569414136</v>
+        <v>0.001093927255104714</v>
       </c>
       <c r="T6">
-        <v>0.002468296569414135</v>
+        <v>0.001093927255104714</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>3.371388</v>
       </c>
       <c r="I7">
-        <v>0.0137597235174641</v>
+        <v>0.00775849308788848</v>
       </c>
       <c r="J7">
-        <v>0.0137597235174641</v>
+        <v>0.00775849308788848</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.10053366666667</v>
+        <v>19.60046366666667</v>
       </c>
       <c r="N7">
-        <v>39.301601</v>
+        <v>58.801391</v>
       </c>
       <c r="O7">
-        <v>0.06587968613835861</v>
+        <v>0.09579635405941929</v>
       </c>
       <c r="P7">
-        <v>0.0658796861383586</v>
+        <v>0.09579635405941929</v>
       </c>
       <c r="Q7">
-        <v>14.72232733246534</v>
+        <v>22.02692266674534</v>
       </c>
       <c r="R7">
-        <v>132.500945992188</v>
+        <v>198.242304000708</v>
       </c>
       <c r="S7">
-        <v>0.0009064862666811267</v>
+        <v>0.0007432353508149221</v>
       </c>
       <c r="T7">
-        <v>0.0009064862666811265</v>
+        <v>0.0007432353508149221</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>3.371388</v>
       </c>
       <c r="I8">
-        <v>0.0137597235174641</v>
+        <v>0.00775849308788848</v>
       </c>
       <c r="J8">
-        <v>0.0137597235174641</v>
+        <v>0.00775849308788848</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>41.17343766666666</v>
+        <v>41.17343766666667</v>
       </c>
       <c r="N8">
         <v>123.520313</v>
       </c>
       <c r="O8">
-        <v>0.2070521109852959</v>
+        <v>0.2012332605818508</v>
       </c>
       <c r="P8">
-        <v>0.2070521109852959</v>
+        <v>0.2012332605818508</v>
       </c>
       <c r="Q8">
-        <v>46.27054455604934</v>
+        <v>46.27054455604935</v>
       </c>
       <c r="R8">
-        <v>416.434901004444</v>
+        <v>416.4349010044441</v>
       </c>
       <c r="S8">
-        <v>0.002848979800864963</v>
+        <v>0.001561266861277551</v>
       </c>
       <c r="T8">
-        <v>0.002848979800864963</v>
+        <v>0.001561266861277551</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>3.371388</v>
       </c>
       <c r="I9">
-        <v>0.0137597235174641</v>
+        <v>0.00775849308788848</v>
       </c>
       <c r="J9">
-        <v>0.0137597235174641</v>
+        <v>0.00775849308788848</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>63.73145666666667</v>
+        <v>62.721578</v>
       </c>
       <c r="N9">
-        <v>191.19437</v>
+        <v>188.164734</v>
       </c>
       <c r="O9">
-        <v>0.3204913989896037</v>
+        <v>0.3065487937140884</v>
       </c>
       <c r="P9">
-        <v>0.3204913989896037</v>
+        <v>0.3065487937140884</v>
       </c>
       <c r="Q9">
-        <v>71.62115607617335</v>
+        <v>70.48625847008802</v>
       </c>
       <c r="R9">
-        <v>644.5904046855602</v>
+        <v>634.3763262307921</v>
       </c>
       <c r="S9">
-        <v>0.004409873039822221</v>
+        <v>0.002378356697131307</v>
       </c>
       <c r="T9">
-        <v>0.00440987303982222</v>
+        <v>0.002378356697131307</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>3.371388</v>
       </c>
       <c r="I10">
-        <v>0.0137597235174641</v>
+        <v>0.00775849308788848</v>
       </c>
       <c r="J10">
-        <v>0.0137597235174641</v>
+        <v>0.00775849308788848</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.48213333333333</v>
+        <v>14.150157</v>
       </c>
       <c r="N10">
-        <v>43.4464</v>
+        <v>42.450471</v>
       </c>
       <c r="O10">
-        <v>0.07282744526976352</v>
+        <v>0.06915823385717373</v>
       </c>
       <c r="P10">
-        <v>0.07282744526976351</v>
+        <v>0.06915823385717375</v>
       </c>
       <c r="Q10">
-        <v>16.27496351146667</v>
+        <v>15.901889835972</v>
       </c>
       <c r="R10">
-        <v>146.4746716032</v>
+        <v>143.117008523748</v>
       </c>
       <c r="S10">
-        <v>0.001002085511395195</v>
+        <v>0.0005365636793514575</v>
       </c>
       <c r="T10">
-        <v>0.001002085511395195</v>
+        <v>0.0005365636793514576</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>3.371388</v>
       </c>
       <c r="I11">
-        <v>0.0137597235174641</v>
+        <v>0.00775849308788848</v>
       </c>
       <c r="J11">
-        <v>0.0137597235174641</v>
+        <v>0.00775849308788848</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>66.36787400000001</v>
+        <v>66.95989233333333</v>
       </c>
       <c r="N11">
-        <v>199.103622</v>
+        <v>200.879677</v>
       </c>
       <c r="O11">
-        <v>0.3337493586169784</v>
+        <v>0.3272633577874677</v>
       </c>
       <c r="P11">
-        <v>0.3337493586169783</v>
+        <v>0.3272633577874678</v>
       </c>
       <c r="Q11">
-        <v>74.58395132970404</v>
+        <v>75.24925916463067</v>
       </c>
       <c r="R11">
-        <v>671.2555619673362</v>
+        <v>677.243332481676</v>
       </c>
       <c r="S11">
-        <v>0.004592298898700597</v>
+        <v>0.002539070499313243</v>
       </c>
       <c r="T11">
-        <v>0.004592298898700596</v>
+        <v>0.002539070499313244</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>28.13359466666667</v>
+        <v>85.95243833333332</v>
       </c>
       <c r="H12">
-        <v>84.400784</v>
+        <v>257.857315</v>
       </c>
       <c r="I12">
-        <v>0.3444668642402499</v>
+        <v>0.5934007584084009</v>
       </c>
       <c r="J12">
-        <v>0.3444668642402499</v>
+        <v>0.5934007584084009</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.10053366666667</v>
+        <v>19.60046366666667</v>
       </c>
       <c r="N12">
-        <v>39.301601</v>
+        <v>58.801391</v>
       </c>
       <c r="O12">
-        <v>0.06587968613835861</v>
+        <v>0.09579635405941929</v>
       </c>
       <c r="P12">
-        <v>0.0658796861383586</v>
+        <v>0.09579635405941929</v>
       </c>
       <c r="Q12">
-        <v>368.5651040950204</v>
+        <v>1684.707644613907</v>
       </c>
       <c r="R12">
-        <v>3317.085936855184</v>
+        <v>15162.36880152516</v>
       </c>
       <c r="S12">
-        <v>0.02269336890121225</v>
+        <v>0.0568456291516191</v>
       </c>
       <c r="T12">
-        <v>0.02269336890121225</v>
+        <v>0.0568456291516191</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>28.13359466666667</v>
+        <v>85.95243833333332</v>
       </c>
       <c r="H13">
-        <v>84.400784</v>
+        <v>257.857315</v>
       </c>
       <c r="I13">
-        <v>0.3444668642402499</v>
+        <v>0.5934007584084009</v>
       </c>
       <c r="J13">
-        <v>0.3444668642402499</v>
+        <v>0.5934007584084009</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>41.17343766666666</v>
+        <v>41.17343766666667</v>
       </c>
       <c r="N13">
         <v>123.520313</v>
       </c>
       <c r="O13">
-        <v>0.2070521109852959</v>
+        <v>0.2012332605818508</v>
       </c>
       <c r="P13">
-        <v>0.2070521109852959</v>
+        <v>0.2012332605818508</v>
       </c>
       <c r="Q13">
-        <v>1158.356806347266</v>
+        <v>3538.957362015511</v>
       </c>
       <c r="R13">
-        <v>10425.21125712539</v>
+        <v>31850.61625813959</v>
       </c>
       <c r="S13">
-        <v>0.07132259140542908</v>
+        <v>0.1194119694462656</v>
       </c>
       <c r="T13">
-        <v>0.07132259140542907</v>
+        <v>0.1194119694462656</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>28.13359466666667</v>
+        <v>85.95243833333332</v>
       </c>
       <c r="H14">
-        <v>84.400784</v>
+        <v>257.857315</v>
       </c>
       <c r="I14">
-        <v>0.3444668642402499</v>
+        <v>0.5934007584084009</v>
       </c>
       <c r="J14">
-        <v>0.3444668642402499</v>
+        <v>0.5934007584084009</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>63.73145666666667</v>
+        <v>62.721578</v>
       </c>
       <c r="N14">
-        <v>191.19437</v>
+        <v>188.164734</v>
       </c>
       <c r="O14">
-        <v>0.3204913989896037</v>
+        <v>0.3065487937140884</v>
       </c>
       <c r="P14">
-        <v>0.3204913989896037</v>
+        <v>0.3065487937140884</v>
       </c>
       <c r="Q14">
-        <v>1792.994969376231</v>
+        <v>5391.072565214356</v>
       </c>
       <c r="R14">
-        <v>16136.95472438608</v>
+        <v>48519.6530869292</v>
       </c>
       <c r="S14">
-        <v>0.1103986672259196</v>
+        <v>0.1819062866791205</v>
       </c>
       <c r="T14">
-        <v>0.1103986672259196</v>
+        <v>0.1819062866791205</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>28.13359466666667</v>
+        <v>85.95243833333332</v>
       </c>
       <c r="H15">
-        <v>84.400784</v>
+        <v>257.857315</v>
       </c>
       <c r="I15">
-        <v>0.3444668642402499</v>
+        <v>0.5934007584084009</v>
       </c>
       <c r="J15">
-        <v>0.3444668642402499</v>
+        <v>0.5934007584084009</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>14.48213333333333</v>
+        <v>14.150157</v>
       </c>
       <c r="N15">
-        <v>43.4464</v>
+        <v>42.450471</v>
       </c>
       <c r="O15">
-        <v>0.07282744526976352</v>
+        <v>0.06915823385717373</v>
       </c>
       <c r="P15">
-        <v>0.07282744526976351</v>
+        <v>0.06915823385717375</v>
       </c>
       <c r="Q15">
-        <v>407.4344691086222</v>
+        <v>1216.240496949485</v>
       </c>
       <c r="R15">
-        <v>3666.9102219776</v>
+        <v>10946.16447254536</v>
       </c>
       <c r="S15">
-        <v>0.02508664170270386</v>
+        <v>0.04103854842103244</v>
       </c>
       <c r="T15">
-        <v>0.02508664170270386</v>
+        <v>0.04103854842103245</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>28.13359466666667</v>
+        <v>85.95243833333332</v>
       </c>
       <c r="H16">
-        <v>84.400784</v>
+        <v>257.857315</v>
       </c>
       <c r="I16">
-        <v>0.3444668642402499</v>
+        <v>0.5934007584084009</v>
       </c>
       <c r="J16">
-        <v>0.3444668642402499</v>
+        <v>0.5934007584084009</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>66.36787400000001</v>
+        <v>66.95989233333333</v>
       </c>
       <c r="N16">
-        <v>199.103622</v>
+        <v>200.879677</v>
       </c>
       <c r="O16">
-        <v>0.3337493586169784</v>
+        <v>0.3272633577874677</v>
       </c>
       <c r="P16">
-        <v>0.3337493586169783</v>
+        <v>0.3272633577874678</v>
       </c>
       <c r="Q16">
-        <v>1867.166866004406</v>
+        <v>5755.366016587472</v>
       </c>
       <c r="R16">
-        <v>16804.50179403965</v>
+        <v>51798.29414928725</v>
       </c>
       <c r="S16">
-        <v>0.1149655950049852</v>
+        <v>0.1941983247103632</v>
       </c>
       <c r="T16">
-        <v>0.1149655950049851</v>
+        <v>0.1941983247103632</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.288857333333333</v>
+        <v>1.941884333333334</v>
       </c>
       <c r="H17">
-        <v>6.866572</v>
+        <v>5.825653000000001</v>
       </c>
       <c r="I17">
-        <v>0.0280246985018516</v>
+        <v>0.01340643335413687</v>
       </c>
       <c r="J17">
-        <v>0.02802469850185161</v>
+        <v>0.01340643335413687</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>13.10053366666667</v>
+        <v>19.60046366666667</v>
       </c>
       <c r="N17">
-        <v>39.301601</v>
+        <v>58.801391</v>
       </c>
       <c r="O17">
-        <v>0.06587968613835861</v>
+        <v>0.09579635405941929</v>
       </c>
       <c r="P17">
-        <v>0.0658796861383586</v>
+        <v>0.09579635405941929</v>
       </c>
       <c r="Q17">
-        <v>29.98525255353022</v>
+        <v>38.06183332036922</v>
       </c>
       <c r="R17">
-        <v>269.867272981772</v>
+        <v>342.556499883323</v>
       </c>
       <c r="S17">
-        <v>0.001846258341424112</v>
+        <v>0.001284287436266904</v>
       </c>
       <c r="T17">
-        <v>0.001846258341424112</v>
+        <v>0.001284287436266904</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.288857333333333</v>
+        <v>1.941884333333334</v>
       </c>
       <c r="H18">
-        <v>6.866572</v>
+        <v>5.825653000000001</v>
       </c>
       <c r="I18">
-        <v>0.0280246985018516</v>
+        <v>0.01340643335413687</v>
       </c>
       <c r="J18">
-        <v>0.02802469850185161</v>
+        <v>0.01340643335413687</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>41.17343766666666</v>
+        <v>41.17343766666667</v>
       </c>
       <c r="N18">
         <v>123.520313</v>
       </c>
       <c r="O18">
-        <v>0.2070521109852959</v>
+        <v>0.2012332605818508</v>
       </c>
       <c r="P18">
-        <v>0.2070521109852959</v>
+        <v>0.2012332605818508</v>
       </c>
       <c r="Q18">
-        <v>94.24012474189287</v>
+        <v>79.95405355437657</v>
       </c>
       <c r="R18">
-        <v>848.1611226770359</v>
+        <v>719.5864819893892</v>
       </c>
       <c r="S18">
-        <v>0.005802572984534834</v>
+        <v>0.00269782029662624</v>
       </c>
       <c r="T18">
-        <v>0.005802572984534834</v>
+        <v>0.00269782029662624</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.288857333333333</v>
+        <v>1.941884333333334</v>
       </c>
       <c r="H19">
-        <v>6.866572</v>
+        <v>5.825653000000001</v>
       </c>
       <c r="I19">
-        <v>0.0280246985018516</v>
+        <v>0.01340643335413687</v>
       </c>
       <c r="J19">
-        <v>0.02802469850185161</v>
+        <v>0.01340643335413687</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>63.73145666666667</v>
+        <v>62.721578</v>
       </c>
       <c r="N19">
-        <v>191.19437</v>
+        <v>188.164734</v>
       </c>
       <c r="O19">
-        <v>0.3204913989896037</v>
+        <v>0.3065487937140884</v>
       </c>
       <c r="P19">
-        <v>0.3204913989896037</v>
+        <v>0.3065487937140884</v>
       </c>
       <c r="Q19">
-        <v>145.8722119555156</v>
+        <v>121.7980496801447</v>
       </c>
       <c r="R19">
-        <v>1312.84990759964</v>
+        <v>1096.182447121302</v>
       </c>
       <c r="S19">
-        <v>0.008981674829120271</v>
+        <v>0.004109725972718976</v>
       </c>
       <c r="T19">
-        <v>0.008981674829120271</v>
+        <v>0.004109725972718976</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.288857333333333</v>
+        <v>1.941884333333334</v>
       </c>
       <c r="H20">
-        <v>6.866572</v>
+        <v>5.825653000000001</v>
       </c>
       <c r="I20">
-        <v>0.0280246985018516</v>
+        <v>0.01340643335413687</v>
       </c>
       <c r="J20">
-        <v>0.02802469850185161</v>
+        <v>0.01340643335413687</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.48213333333333</v>
+        <v>14.150157</v>
       </c>
       <c r="N20">
-        <v>43.4464</v>
+        <v>42.450471</v>
       </c>
       <c r="O20">
-        <v>0.07282744526976352</v>
+        <v>0.06915823385717373</v>
       </c>
       <c r="P20">
-        <v>0.07282744526976351</v>
+        <v>0.06915823385717375</v>
       </c>
       <c r="Q20">
-        <v>33.1475370823111</v>
+        <v>27.477968192507</v>
       </c>
       <c r="R20">
-        <v>298.3278337408</v>
+        <v>247.301713732563</v>
       </c>
       <c r="S20">
-        <v>0.002040967196345221</v>
+        <v>0.0009271652530960116</v>
       </c>
       <c r="T20">
-        <v>0.002040967196345221</v>
+        <v>0.0009271652530960118</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.288857333333333</v>
+        <v>1.941884333333334</v>
       </c>
       <c r="H21">
-        <v>6.866572</v>
+        <v>5.825653000000001</v>
       </c>
       <c r="I21">
-        <v>0.0280246985018516</v>
+        <v>0.01340643335413687</v>
       </c>
       <c r="J21">
-        <v>0.02802469850185161</v>
+        <v>0.01340643335413687</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>66.36787400000001</v>
+        <v>66.95989233333333</v>
       </c>
       <c r="N21">
-        <v>199.103622</v>
+        <v>200.879677</v>
       </c>
       <c r="O21">
-        <v>0.3337493586169784</v>
+        <v>0.3272633577874677</v>
       </c>
       <c r="P21">
-        <v>0.3337493586169783</v>
+        <v>0.3272633577874678</v>
       </c>
       <c r="Q21">
-        <v>151.9065951026427</v>
+        <v>130.0283658837868</v>
       </c>
       <c r="R21">
-        <v>1367.159355923784</v>
+        <v>1170.255292954081</v>
       </c>
       <c r="S21">
-        <v>0.009353225150427167</v>
+        <v>0.004387434395428735</v>
       </c>
       <c r="T21">
-        <v>0.009353225150427165</v>
+        <v>0.004387434395428736</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>49.52258933333334</v>
+        <v>55.34490766666666</v>
       </c>
       <c r="H22">
-        <v>148.567768</v>
+        <v>166.034723</v>
       </c>
       <c r="I22">
-        <v>0.6063530543760464</v>
+        <v>0.3820916639511615</v>
       </c>
       <c r="J22">
-        <v>0.6063530543760464</v>
+        <v>0.3820916639511614</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>13.10053366666667</v>
+        <v>19.60046366666667</v>
       </c>
       <c r="N22">
-        <v>39.301601</v>
+        <v>58.801391</v>
       </c>
       <c r="O22">
-        <v>0.06587968613835861</v>
+        <v>0.09579635405941929</v>
       </c>
       <c r="P22">
-        <v>0.0658796861383586</v>
+        <v>0.09579635405941929</v>
       </c>
       <c r="Q22">
-        <v>648.7723488218409</v>
+        <v>1084.785851855521</v>
       </c>
       <c r="R22">
-        <v>5838.951139396568</v>
+        <v>9763.072666699691</v>
       </c>
       <c r="S22">
-        <v>0.03994634891132903</v>
+        <v>0.03660298832301812</v>
       </c>
       <c r="T22">
-        <v>0.03994634891132902</v>
+        <v>0.03660298832301811</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>49.52258933333334</v>
+        <v>55.34490766666666</v>
       </c>
       <c r="H23">
-        <v>148.567768</v>
+        <v>166.034723</v>
       </c>
       <c r="I23">
-        <v>0.6063530543760464</v>
+        <v>0.3820916639511615</v>
       </c>
       <c r="J23">
-        <v>0.6063530543760464</v>
+        <v>0.3820916639511614</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1860,28 +1860,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>41.17343766666666</v>
+        <v>41.17343766666667</v>
       </c>
       <c r="N23">
         <v>123.520313</v>
       </c>
       <c r="O23">
-        <v>0.2070521109852959</v>
+        <v>0.2012332605818508</v>
       </c>
       <c r="P23">
-        <v>0.2070521109852959</v>
+        <v>0.2012332605818508</v>
       </c>
       <c r="Q23">
-        <v>2039.015245007932</v>
+        <v>2278.740105980922</v>
       </c>
       <c r="R23">
-        <v>18351.13720507138</v>
+        <v>20508.6609538283</v>
       </c>
       <c r="S23">
-        <v>0.1255466799109423</v>
+        <v>0.07688955137803702</v>
       </c>
       <c r="T23">
-        <v>0.1255466799109423</v>
+        <v>0.07688955137803702</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>49.52258933333334</v>
+        <v>55.34490766666666</v>
       </c>
       <c r="H24">
-        <v>148.567768</v>
+        <v>166.034723</v>
       </c>
       <c r="I24">
-        <v>0.6063530543760464</v>
+        <v>0.3820916639511615</v>
       </c>
       <c r="J24">
-        <v>0.6063530543760464</v>
+        <v>0.3820916639511614</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>63.73145666666667</v>
+        <v>62.721578</v>
       </c>
       <c r="N24">
-        <v>191.19437</v>
+        <v>188.164734</v>
       </c>
       <c r="O24">
-        <v>0.3204913989896037</v>
+        <v>0.3065487937140884</v>
       </c>
       <c r="P24">
-        <v>0.3204913989896037</v>
+        <v>0.3065487937140884</v>
       </c>
       <c r="Q24">
-        <v>3156.146756118463</v>
+        <v>3471.319943117631</v>
       </c>
       <c r="R24">
-        <v>28405.32080506616</v>
+        <v>31241.87948805868</v>
       </c>
       <c r="S24">
-        <v>0.1943309386785984</v>
+        <v>0.1171297386724374</v>
       </c>
       <c r="T24">
-        <v>0.1943309386785983</v>
+        <v>0.1171297386724374</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>49.52258933333334</v>
+        <v>55.34490766666666</v>
       </c>
       <c r="H25">
-        <v>148.567768</v>
+        <v>166.034723</v>
       </c>
       <c r="I25">
-        <v>0.6063530543760464</v>
+        <v>0.3820916639511615</v>
       </c>
       <c r="J25">
-        <v>0.6063530543760464</v>
+        <v>0.3820916639511614</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>14.48213333333333</v>
+        <v>14.150157</v>
       </c>
       <c r="N25">
-        <v>43.4464</v>
+        <v>42.450471</v>
       </c>
       <c r="O25">
-        <v>0.07282744526976352</v>
+        <v>0.06915823385717373</v>
       </c>
       <c r="P25">
-        <v>0.07282744526976351</v>
+        <v>0.06915823385717375</v>
       </c>
       <c r="Q25">
-        <v>717.1927417372444</v>
+        <v>783.139132633837</v>
       </c>
       <c r="R25">
-        <v>6454.7346756352</v>
+        <v>7048.252193704532</v>
       </c>
       <c r="S25">
-        <v>0.04415914388172546</v>
+        <v>0.02642478465041106</v>
       </c>
       <c r="T25">
-        <v>0.04415914388172545</v>
+        <v>0.02642478465041107</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>49.52258933333334</v>
+        <v>55.34490766666666</v>
       </c>
       <c r="H26">
-        <v>148.567768</v>
+        <v>166.034723</v>
       </c>
       <c r="I26">
-        <v>0.6063530543760464</v>
+        <v>0.3820916639511615</v>
       </c>
       <c r="J26">
-        <v>0.6063530543760464</v>
+        <v>0.3820916639511614</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>66.36787400000001</v>
+        <v>66.95989233333333</v>
       </c>
       <c r="N26">
-        <v>199.103622</v>
+        <v>200.879677</v>
       </c>
       <c r="O26">
-        <v>0.3337493586169784</v>
+        <v>0.3272633577874677</v>
       </c>
       <c r="P26">
-        <v>0.3337493586169783</v>
+        <v>0.3272633577874678</v>
       </c>
       <c r="Q26">
-        <v>3286.708969028412</v>
+        <v>3705.889058558274</v>
       </c>
       <c r="R26">
-        <v>29580.3807212557</v>
+        <v>33353.00152702447</v>
       </c>
       <c r="S26">
-        <v>0.2023699429934513</v>
+        <v>0.1250446009272578</v>
       </c>
       <c r="T26">
-        <v>0.2023699429934512</v>
+        <v>0.1250446009272578</v>
       </c>
     </row>
   </sheetData>
